--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/62/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/62/FD_Curve.xlsx
@@ -488,450 +488,450 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>3.31293</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>3312.93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.67083</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3670.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154982</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>3.90339</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>3903.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185958</v>
       </c>
       <c r="B8" t="n">
-        <v>6.667590000000001</v>
+        <v>3.93496</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.59</v>
+        <v>3934.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216935</v>
       </c>
       <c r="B9" t="n">
-        <v>7.68831</v>
+        <v>3.9338</v>
       </c>
       <c r="C9" t="n">
-        <v>7688.31</v>
+        <v>3933.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247935</v>
+        <v>0.247911</v>
       </c>
       <c r="B10" t="n">
-        <v>8.47381</v>
+        <v>3.93003</v>
       </c>
       <c r="C10" t="n">
-        <v>8473.809999999999</v>
+        <v>3930.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.27886</v>
+        <v>0.278839</v>
       </c>
       <c r="B11" t="n">
-        <v>9.176600000000001</v>
+        <v>3.92439</v>
       </c>
       <c r="C11" t="n">
-        <v>9176.6</v>
+        <v>3924.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309785</v>
+        <v>0.309764</v>
       </c>
       <c r="B12" t="n">
-        <v>9.879100000000001</v>
+        <v>3.91896</v>
       </c>
       <c r="C12" t="n">
-        <v>9879.1</v>
+        <v>3918.96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.34071</v>
+        <v>0.340689</v>
       </c>
       <c r="B13" t="n">
-        <v>10.244</v>
+        <v>3.91258</v>
       </c>
       <c r="C13" t="n">
-        <v>10244</v>
+        <v>3912.58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371635</v>
+        <v>0.371614</v>
       </c>
       <c r="B14" t="n">
-        <v>10.4732</v>
+        <v>3.9064</v>
       </c>
       <c r="C14" t="n">
-        <v>10473.2</v>
+        <v>3906.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.40256</v>
+        <v>0.402539</v>
       </c>
       <c r="B15" t="n">
-        <v>10.4915</v>
+        <v>3.8996</v>
       </c>
       <c r="C15" t="n">
-        <v>10491.5</v>
+        <v>3899.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433485</v>
+        <v>0.433464</v>
       </c>
       <c r="B16" t="n">
-        <v>10.461</v>
+        <v>3.89275</v>
       </c>
       <c r="C16" t="n">
-        <v>10461</v>
+        <v>3892.75</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.46441</v>
+        <v>0.464389</v>
       </c>
       <c r="B17" t="n">
-        <v>10.4275</v>
+        <v>3.88558</v>
       </c>
       <c r="C17" t="n">
-        <v>10427.5</v>
+        <v>3885.58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495335</v>
+        <v>0.495314</v>
       </c>
       <c r="B18" t="n">
-        <v>10.3949</v>
+        <v>3.87795</v>
       </c>
       <c r="C18" t="n">
-        <v>10394.9</v>
+        <v>3877.95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.52626</v>
+        <v>0.526239</v>
       </c>
       <c r="B19" t="n">
-        <v>10.3627</v>
+        <v>3.87028</v>
       </c>
       <c r="C19" t="n">
-        <v>10362.7</v>
+        <v>3870.28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557185</v>
+        <v>0.557164</v>
       </c>
       <c r="B20" t="n">
-        <v>10.3291</v>
+        <v>3.862</v>
       </c>
       <c r="C20" t="n">
-        <v>10329.1</v>
+        <v>3862</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.58811</v>
+        <v>0.588089</v>
       </c>
       <c r="B21" t="n">
-        <v>10.2938</v>
+        <v>3.85366</v>
       </c>
       <c r="C21" t="n">
-        <v>10293.8</v>
+        <v>3853.66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619152</v>
+        <v>0.619127</v>
       </c>
       <c r="B22" t="n">
-        <v>10.2568</v>
+        <v>3.84453</v>
       </c>
       <c r="C22" t="n">
-        <v>10256.8</v>
+        <v>3844.53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650325</v>
+        <v>0.650304</v>
       </c>
       <c r="B23" t="n">
-        <v>10.2171</v>
+        <v>3.8353</v>
       </c>
       <c r="C23" t="n">
-        <v>10217.1</v>
+        <v>3835.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681497</v>
+        <v>0.681477</v>
       </c>
       <c r="B24" t="n">
-        <v>10.1746</v>
+        <v>3.8255</v>
       </c>
       <c r="C24" t="n">
-        <v>10174.6</v>
+        <v>3825.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126749999999999</v>
+        <v>0.712654</v>
       </c>
       <c r="B25" t="n">
-        <v>10.1301</v>
+        <v>3.81553</v>
       </c>
       <c r="C25" t="n">
-        <v>10130.1</v>
+        <v>3815.53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743847</v>
+        <v>0.743826</v>
       </c>
       <c r="B26" t="n">
-        <v>10.084</v>
+        <v>3.80522</v>
       </c>
       <c r="C26" t="n">
-        <v>10084</v>
+        <v>3805.22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775024</v>
+        <v>0.774999</v>
       </c>
       <c r="B27" t="n">
-        <v>10.0369</v>
+        <v>3.79452</v>
       </c>
       <c r="C27" t="n">
-        <v>10036.9</v>
+        <v>3794.52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8061970000000001</v>
+        <v>0.806176</v>
       </c>
       <c r="B28" t="n">
-        <v>9.989690000000001</v>
+        <v>3.78355</v>
       </c>
       <c r="C28" t="n">
-        <v>9989.690000000001</v>
+        <v>3783.55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837369</v>
+        <v>0.837348</v>
       </c>
       <c r="B29" t="n">
-        <v>9.94134</v>
+        <v>3.77225</v>
       </c>
       <c r="C29" t="n">
-        <v>9941.34</v>
+        <v>3772.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868546</v>
+        <v>0.868521</v>
       </c>
       <c r="B30" t="n">
-        <v>9.891959999999999</v>
+        <v>3.76066</v>
       </c>
       <c r="C30" t="n">
-        <v>9891.959999999999</v>
+        <v>3760.66</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899719</v>
+        <v>0.899698</v>
       </c>
       <c r="B31" t="n">
-        <v>9.84098</v>
+        <v>3.74872</v>
       </c>
       <c r="C31" t="n">
-        <v>9840.98</v>
+        <v>3748.72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930891</v>
+        <v>0.93087</v>
       </c>
       <c r="B32" t="n">
-        <v>9.78764</v>
+        <v>3.73646</v>
       </c>
       <c r="C32" t="n">
-        <v>9787.639999999999</v>
+        <v>3736.46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962068</v>
+        <v>0.962043</v>
       </c>
       <c r="B33" t="n">
-        <v>9.7326</v>
+        <v>3.72377</v>
       </c>
       <c r="C33" t="n">
-        <v>9732.6</v>
+        <v>3723.77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993241</v>
+        <v>0.99322</v>
       </c>
       <c r="B34" t="n">
-        <v>9.67525</v>
+        <v>3.71052</v>
       </c>
       <c r="C34" t="n">
-        <v>9675.25</v>
+        <v>3710.52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02455</v>
+        <v>1.02451</v>
       </c>
       <c r="B35" t="n">
-        <v>9.615120000000001</v>
+        <v>3.69673</v>
       </c>
       <c r="C35" t="n">
-        <v>9615.120000000001</v>
+        <v>3696.73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05593</v>
+        <v>1.0559</v>
       </c>
       <c r="B36" t="n">
-        <v>9.552020000000001</v>
+        <v>3.68244</v>
       </c>
       <c r="C36" t="n">
-        <v>9552.02</v>
+        <v>3682.44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08731</v>
+        <v>1.08728</v>
       </c>
       <c r="B37" t="n">
-        <v>9.485250000000001</v>
+        <v>3.66776</v>
       </c>
       <c r="C37" t="n">
-        <v>9485.25</v>
+        <v>3667.76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.1187</v>
+        <v>1.11866</v>
       </c>
       <c r="B38" t="n">
-        <v>9.41427</v>
+        <v>3.65259</v>
       </c>
       <c r="C38" t="n">
-        <v>9414.27</v>
+        <v>3652.59</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14977</v>
+        <v>1.15004</v>
       </c>
       <c r="B39" t="n">
-        <v>9.33963</v>
+        <v>3.63693</v>
       </c>
       <c r="C39" t="n">
-        <v>9339.629999999999</v>
+        <v>3636.93</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18078</v>
+        <v>1.18105</v>
       </c>
       <c r="B40" t="n">
-        <v>9.261000000000001</v>
+        <v>3.62089</v>
       </c>
       <c r="C40" t="n">
-        <v>9261</v>
+        <v>3620.89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21181</v>
+        <v>1.21203</v>
       </c>
       <c r="B41" t="n">
-        <v>9.17808</v>
+        <v>3.60439</v>
       </c>
       <c r="C41" t="n">
-        <v>9178.08</v>
+        <v>3604.39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24301</v>
+        <v>1.24295</v>
       </c>
       <c r="B42" t="n">
-        <v>9.089560000000001</v>
+        <v>3.58738</v>
       </c>
       <c r="C42" t="n">
-        <v>9089.559999999999</v>
+        <v>3587.38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27379</v>
+        <v>1.27402</v>
       </c>
       <c r="B43" t="n">
-        <v>8.99798</v>
+        <v>3.56971</v>
       </c>
       <c r="C43" t="n">
-        <v>8997.98</v>
+        <v>3569.71</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30503</v>
+        <v>1.30501</v>
       </c>
       <c r="B44" t="n">
-        <v>8.900170000000001</v>
+        <v>3.5515</v>
       </c>
       <c r="C44" t="n">
-        <v>8900.17</v>
+        <v>3551.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33587</v>
+        <v>1.33602</v>
       </c>
       <c r="B45" t="n">
-        <v>8.79907</v>
+        <v>3.53266</v>
       </c>
       <c r="C45" t="n">
-        <v>8799.07</v>
+        <v>3532.66</v>
       </c>
     </row>
     <row r="46">
@@ -939,626 +939,626 @@
         <v>1.36699</v>
       </c>
       <c r="B46" t="n">
-        <v>8.692530000000001</v>
+        <v>3.51319</v>
       </c>
       <c r="C46" t="n">
-        <v>8692.530000000001</v>
+        <v>3513.19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.3979</v>
+        <v>1.398</v>
       </c>
       <c r="B47" t="n">
-        <v>8.58206</v>
+        <v>3.49302</v>
       </c>
       <c r="C47" t="n">
-        <v>8582.059999999999</v>
+        <v>3493.02</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42901</v>
+        <v>1.42898</v>
       </c>
       <c r="B48" t="n">
-        <v>8.467409999999999</v>
+        <v>3.47219</v>
       </c>
       <c r="C48" t="n">
-        <v>8467.41</v>
+        <v>3472.19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45993</v>
+        <v>1.46006</v>
       </c>
       <c r="B49" t="n">
-        <v>8.348790000000001</v>
+        <v>3.45055</v>
       </c>
       <c r="C49" t="n">
-        <v>8348.790000000001</v>
+        <v>3450.55</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49094</v>
+        <v>1.49093</v>
       </c>
       <c r="B50" t="n">
-        <v>8.22696</v>
+        <v>3.42829</v>
       </c>
       <c r="C50" t="n">
-        <v>8226.959999999999</v>
+        <v>3428.29</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52197</v>
+        <v>1.52205</v>
       </c>
       <c r="B51" t="n">
-        <v>8.100680000000001</v>
+        <v>3.40508</v>
       </c>
       <c r="C51" t="n">
-        <v>8100.68</v>
+        <v>3405.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55299</v>
+        <v>1.55291</v>
       </c>
       <c r="B52" t="n">
-        <v>7.97228</v>
+        <v>3.38136</v>
       </c>
       <c r="C52" t="n">
-        <v>7972.28</v>
+        <v>3381.36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58397</v>
+        <v>1.58407</v>
       </c>
       <c r="B53" t="n">
-        <v>7.841130000000001</v>
+        <v>3.35661</v>
       </c>
       <c r="C53" t="n">
-        <v>7841.13</v>
+        <v>3356.61</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61495</v>
+        <v>1.61476</v>
       </c>
       <c r="B54" t="n">
-        <v>7.708460000000001</v>
+        <v>3.33149</v>
       </c>
       <c r="C54" t="n">
-        <v>7708.46</v>
+        <v>3331.49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64593</v>
+        <v>1.64609</v>
       </c>
       <c r="B55" t="n">
-        <v>7.57379</v>
+        <v>3.3052</v>
       </c>
       <c r="C55" t="n">
-        <v>7573.79</v>
+        <v>3305.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67701</v>
+        <v>1.6768</v>
       </c>
       <c r="B56" t="n">
-        <v>7.43756</v>
+        <v>3.27876</v>
       </c>
       <c r="C56" t="n">
-        <v>7437.56</v>
+        <v>3278.76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70784</v>
+        <v>1.70808</v>
       </c>
       <c r="B57" t="n">
-        <v>7.302560000000001</v>
+        <v>3.251</v>
       </c>
       <c r="C57" t="n">
-        <v>7302.56</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73908</v>
+        <v>1.73872</v>
       </c>
       <c r="B58" t="n">
-        <v>7.16615</v>
+        <v>3.22314</v>
       </c>
       <c r="C58" t="n">
-        <v>7166.15</v>
+        <v>3223.14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76969</v>
+        <v>1.77009</v>
       </c>
       <c r="B59" t="n">
-        <v>7.03352</v>
+        <v>3.19403</v>
       </c>
       <c r="C59" t="n">
-        <v>7033.52</v>
+        <v>3194.03</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80109</v>
+        <v>1.80075</v>
       </c>
       <c r="B60" t="n">
-        <v>6.89834</v>
+        <v>3.16496</v>
       </c>
       <c r="C60" t="n">
-        <v>6898.34</v>
+        <v>3164.96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83193</v>
+        <v>1.83214</v>
       </c>
       <c r="B61" t="n">
-        <v>6.76728</v>
+        <v>3.13452</v>
       </c>
       <c r="C61" t="n">
-        <v>6767.28</v>
+        <v>3134.52</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.8629</v>
+        <v>1.86289</v>
       </c>
       <c r="B62" t="n">
-        <v>6.63734</v>
+        <v>3.10411</v>
       </c>
       <c r="C62" t="n">
-        <v>6637.34</v>
+        <v>3104.11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89409</v>
+        <v>1.8941</v>
       </c>
       <c r="B63" t="n">
-        <v>6.508970000000001</v>
+        <v>3.07278</v>
       </c>
       <c r="C63" t="n">
-        <v>6508.97</v>
+        <v>3072.78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92467</v>
+        <v>1.92496</v>
       </c>
       <c r="B64" t="n">
-        <v>6.38538</v>
+        <v>3.04131</v>
       </c>
       <c r="C64" t="n">
-        <v>6385.38</v>
+        <v>3041.31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95602</v>
+        <v>1.956</v>
       </c>
       <c r="B65" t="n">
-        <v>6.261810000000001</v>
+        <v>3.0093</v>
       </c>
       <c r="C65" t="n">
-        <v>6261.81</v>
+        <v>3009.3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98708</v>
+        <v>1.98697</v>
       </c>
       <c r="B66" t="n">
-        <v>6.14271</v>
+        <v>2.9771</v>
       </c>
       <c r="C66" t="n">
-        <v>6142.71</v>
+        <v>2977.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0175</v>
+        <v>2.01786</v>
       </c>
       <c r="B67" t="n">
-        <v>6.02999</v>
+        <v>2.94467</v>
       </c>
       <c r="C67" t="n">
-        <v>6029.99</v>
+        <v>2944.67</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04904</v>
+        <v>2.04949</v>
       </c>
       <c r="B68" t="n">
-        <v>5.918130000000001</v>
+        <v>2.91159</v>
       </c>
       <c r="C68" t="n">
-        <v>5918.13</v>
+        <v>2911.59</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08026</v>
+        <v>2.07964</v>
       </c>
       <c r="B69" t="n">
-        <v>5.81264</v>
+        <v>2.87908</v>
       </c>
       <c r="C69" t="n">
-        <v>5812.64</v>
+        <v>2879.08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11038</v>
+        <v>2.11143</v>
       </c>
       <c r="B70" t="n">
-        <v>5.7135</v>
+        <v>2.84524</v>
       </c>
       <c r="C70" t="n">
-        <v>5713.5</v>
+        <v>2845.24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14214</v>
+        <v>2.14206</v>
       </c>
       <c r="B71" t="n">
-        <v>5.61519</v>
+        <v>2.81173</v>
       </c>
       <c r="C71" t="n">
-        <v>5615.19</v>
+        <v>2811.73</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.1732</v>
+        <v>2.17262</v>
       </c>
       <c r="B72" t="n">
-        <v>5.522180000000001</v>
+        <v>2.77866</v>
       </c>
       <c r="C72" t="n">
-        <v>5522.18</v>
+        <v>2778.66</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.2036</v>
+        <v>2.20433</v>
       </c>
       <c r="B73" t="n">
-        <v>5.43429</v>
+        <v>2.74425</v>
       </c>
       <c r="C73" t="n">
-        <v>5434.29</v>
+        <v>2744.25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23495</v>
+        <v>2.23505</v>
       </c>
       <c r="B74" t="n">
-        <v>5.34935</v>
+        <v>2.71083</v>
       </c>
       <c r="C74" t="n">
-        <v>5349.35</v>
+        <v>2710.83</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26621</v>
+        <v>2.26577</v>
       </c>
       <c r="B75" t="n">
-        <v>5.26721</v>
+        <v>2.67803</v>
       </c>
       <c r="C75" t="n">
-        <v>5267.21</v>
+        <v>2678.03</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29716</v>
+        <v>2.29712</v>
       </c>
       <c r="B76" t="n">
-        <v>5.19058</v>
+        <v>2.64376</v>
       </c>
       <c r="C76" t="n">
-        <v>5190.58</v>
+        <v>2643.76</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32867</v>
+        <v>2.3282</v>
       </c>
       <c r="B77" t="n">
-        <v>5.11507</v>
+        <v>2.61012</v>
       </c>
       <c r="C77" t="n">
-        <v>5115.07</v>
+        <v>2610.12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36018</v>
+        <v>2.35929</v>
       </c>
       <c r="B78" t="n">
-        <v>5.04166</v>
+        <v>2.57709</v>
       </c>
       <c r="C78" t="n">
-        <v>5041.66</v>
+        <v>2577.09</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39168</v>
+        <v>2.38968</v>
       </c>
       <c r="B79" t="n">
-        <v>4.97146</v>
+        <v>2.54373</v>
       </c>
       <c r="C79" t="n">
-        <v>4971.46</v>
+        <v>2543.73</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42319</v>
+        <v>2.42118</v>
       </c>
       <c r="B80" t="n">
-        <v>4.90364</v>
+        <v>2.5095</v>
       </c>
       <c r="C80" t="n">
-        <v>4903.64</v>
+        <v>2509.5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45273</v>
+        <v>2.4533</v>
       </c>
       <c r="B81" t="n">
-        <v>4.84264</v>
+        <v>2.47553</v>
       </c>
       <c r="C81" t="n">
-        <v>4842.64</v>
+        <v>2475.53</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4819</v>
+        <v>2.48576</v>
       </c>
       <c r="B82" t="n">
-        <v>4.810140000000001</v>
+        <v>2.44015</v>
       </c>
       <c r="C82" t="n">
-        <v>4810.14</v>
+        <v>2440.15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51518</v>
+        <v>2.51776</v>
       </c>
       <c r="B83" t="n">
-        <v>4.79935</v>
+        <v>2.40605</v>
       </c>
       <c r="C83" t="n">
-        <v>4799.35</v>
+        <v>2406.05</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54846</v>
+        <v>2.54837</v>
       </c>
       <c r="B84" t="n">
-        <v>4.78925</v>
+        <v>2.37316</v>
       </c>
       <c r="C84" t="n">
-        <v>4789.25</v>
+        <v>2373.16</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58174</v>
+        <v>2.57824</v>
       </c>
       <c r="B85" t="n">
-        <v>4.77405</v>
+        <v>2.34108</v>
       </c>
       <c r="C85" t="n">
-        <v>4774.05</v>
+        <v>2341.08</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61383</v>
+        <v>2.6081</v>
       </c>
       <c r="B86" t="n">
-        <v>4.75794</v>
+        <v>2.30921</v>
       </c>
       <c r="C86" t="n">
-        <v>4757.94</v>
+        <v>2309.21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64455</v>
+        <v>2.63797</v>
       </c>
       <c r="B87" t="n">
-        <v>4.737439999999999</v>
+        <v>2.27775</v>
       </c>
       <c r="C87" t="n">
-        <v>4737.44</v>
+        <v>2277.75</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67527</v>
+        <v>2.66784</v>
       </c>
       <c r="B88" t="n">
-        <v>4.72017</v>
+        <v>2.24718</v>
       </c>
       <c r="C88" t="n">
-        <v>4720.17</v>
+        <v>2247.18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70599</v>
+        <v>2.69725</v>
       </c>
       <c r="B89" t="n">
-        <v>4.70352</v>
+        <v>2.21705</v>
       </c>
       <c r="C89" t="n">
-        <v>4703.52</v>
+        <v>2217.05</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73671</v>
+        <v>2.72711</v>
       </c>
       <c r="B90" t="n">
-        <v>4.68156</v>
+        <v>2.18529</v>
       </c>
       <c r="C90" t="n">
-        <v>4681.56</v>
+        <v>2185.29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76743</v>
+        <v>2.76039</v>
       </c>
       <c r="B91" t="n">
-        <v>4.65165</v>
+        <v>2.15102</v>
       </c>
       <c r="C91" t="n">
-        <v>4651.65</v>
+        <v>2151.02</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79811</v>
+        <v>2.79367</v>
       </c>
       <c r="B92" t="n">
-        <v>4.63069</v>
+        <v>2.11765</v>
       </c>
       <c r="C92" t="n">
-        <v>4630.69</v>
+        <v>2117.65</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82627</v>
+        <v>2.82695</v>
       </c>
       <c r="B93" t="n">
-        <v>4.61205</v>
+        <v>2.08502</v>
       </c>
       <c r="C93" t="n">
-        <v>4612.05</v>
+        <v>2085.02</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85443</v>
+        <v>2.85774</v>
       </c>
       <c r="B94" t="n">
-        <v>4.5905</v>
+        <v>2.05335</v>
       </c>
       <c r="C94" t="n">
-        <v>4590.5</v>
+        <v>2053.35</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88259</v>
+        <v>2.88846</v>
       </c>
       <c r="B95" t="n">
-        <v>4.56678</v>
+        <v>2.02255</v>
       </c>
       <c r="C95" t="n">
-        <v>4566.78</v>
+        <v>2022.55</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91075</v>
+        <v>2.91918</v>
       </c>
       <c r="B96" t="n">
-        <v>4.54375</v>
+        <v>1.99272</v>
       </c>
       <c r="C96" t="n">
-        <v>4543.75</v>
+        <v>1992.72</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94004</v>
+        <v>2.9499</v>
       </c>
       <c r="B97" t="n">
-        <v>4.515770000000001</v>
+        <v>1.96354</v>
       </c>
       <c r="C97" t="n">
-        <v>4515.77</v>
+        <v>1963.54</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97524</v>
+        <v>2.98062</v>
       </c>
       <c r="B98" t="n">
-        <v>4.48864</v>
+        <v>1.93507</v>
       </c>
       <c r="C98" t="n">
-        <v>4488.64</v>
+        <v>1935.07</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01044</v>
+        <v>3.00937</v>
       </c>
       <c r="B99" t="n">
-        <v>4.451689999999999</v>
+        <v>1.90736</v>
       </c>
       <c r="C99" t="n">
-        <v>4451.69</v>
+        <v>1907.36</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04413</v>
+        <v>3.03753</v>
       </c>
       <c r="B100" t="n">
-        <v>4.42608</v>
+        <v>1.88054</v>
       </c>
       <c r="C100" t="n">
-        <v>4426.08</v>
+        <v>1880.54</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07613</v>
+        <v>3.06569</v>
       </c>
       <c r="B101" t="n">
-        <v>4.372890000000001</v>
+        <v>1.85453</v>
       </c>
       <c r="C101" t="n">
-        <v>4372.89</v>
+        <v>1854.53</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10813</v>
+        <v>3.09386</v>
       </c>
       <c r="B102" t="n">
-        <v>4.353569999999999</v>
+        <v>1.82965</v>
       </c>
       <c r="C102" t="n">
-        <v>4353.57</v>
+        <v>1829.65</v>
       </c>
     </row>
   </sheetData>
